--- a/DATA FILES/NAVAJO NATION/NNCovidData..xlsx
+++ b/DATA FILES/NAVAJO NATION/NNCovidData..xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="NNCovidData." sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>FIPS</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>WINSLOW</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -144,8 +141,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -628,8 +625,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -965,10 +962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6"/>
@@ -1257,16 +1254,8 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="I12">
-        <v>29701</v>
-      </c>
-      <c r="J12">
+    <row r="10" spans="1:15">
+      <c r="J10">
         <v>1168</v>
       </c>
     </row>
